--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.475799922328131</v>
+        <v>36.35426266666666</v>
       </c>
       <c r="H2">
-        <v>8.475799922328131</v>
+        <v>109.062788</v>
       </c>
       <c r="I2">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="J2">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.6723196357907</v>
+        <v>61.629167</v>
       </c>
       <c r="N2">
-        <v>29.6723196357907</v>
+        <v>184.887501</v>
       </c>
       <c r="O2">
-        <v>0.7332407321865642</v>
+        <v>0.8452417044501688</v>
       </c>
       <c r="P2">
-        <v>0.7332407321865642</v>
+        <v>0.8452417044501688</v>
       </c>
       <c r="Q2">
-        <v>251.4966444643303</v>
+        <v>2240.482925045865</v>
       </c>
       <c r="R2">
-        <v>251.4966444643303</v>
+        <v>20164.34632541279</v>
       </c>
       <c r="S2">
-        <v>0.1028285582606829</v>
+        <v>0.3461136651345584</v>
       </c>
       <c r="T2">
-        <v>0.1028285582606829</v>
+        <v>0.3461136651345584</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.475799922328131</v>
+        <v>36.35426266666666</v>
       </c>
       <c r="H3">
-        <v>8.475799922328131</v>
+        <v>109.062788</v>
       </c>
       <c r="I3">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="J3">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.17020720208716</v>
+        <v>1.357683666666667</v>
       </c>
       <c r="N3">
-        <v>1.17020720208716</v>
+        <v>4.073051</v>
       </c>
       <c r="O3">
-        <v>0.0289173073153812</v>
+        <v>0.01862058035795759</v>
       </c>
       <c r="P3">
-        <v>0.0289173073153812</v>
+        <v>0.01862058035795759</v>
       </c>
       <c r="Q3">
-        <v>9.91844211255817</v>
+        <v>49.3575886362431</v>
       </c>
       <c r="R3">
-        <v>9.91844211255817</v>
+        <v>444.2182977261879</v>
       </c>
       <c r="S3">
-        <v>0.004055318928006814</v>
+        <v>0.007624845391198068</v>
       </c>
       <c r="T3">
-        <v>0.004055318928006814</v>
+        <v>0.007624845391198068</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.475799922328131</v>
+        <v>36.35426266666666</v>
       </c>
       <c r="H4">
-        <v>8.475799922328131</v>
+        <v>109.062788</v>
       </c>
       <c r="I4">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="J4">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.624837198631971</v>
+        <v>9.926218666666665</v>
       </c>
       <c r="N4">
-        <v>9.624837198631971</v>
+        <v>29.778656</v>
       </c>
       <c r="O4">
-        <v>0.2378419604980547</v>
+        <v>0.1361377151918736</v>
       </c>
       <c r="P4">
-        <v>0.2378419604980547</v>
+        <v>0.1361377151918736</v>
       </c>
       <c r="Q4">
-        <v>81.57819438058576</v>
+        <v>360.8603606947697</v>
       </c>
       <c r="R4">
-        <v>81.57819438058576</v>
+        <v>3247.743246252928</v>
       </c>
       <c r="S4">
-        <v>0.03335459258922688</v>
+        <v>0.05574633068863431</v>
       </c>
       <c r="T4">
-        <v>0.03335459258922688</v>
+        <v>0.05574633068863432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.7532640265214</v>
+        <v>45.11545066666667</v>
       </c>
       <c r="H5">
-        <v>44.7532640265214</v>
+        <v>135.346352</v>
       </c>
       <c r="I5">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="J5">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.6723196357907</v>
+        <v>61.629167</v>
       </c>
       <c r="N5">
-        <v>29.6723196357907</v>
+        <v>184.887501</v>
       </c>
       <c r="O5">
-        <v>0.7332407321865642</v>
+        <v>0.8452417044501688</v>
       </c>
       <c r="P5">
-        <v>0.7332407321865642</v>
+        <v>0.8452417044501688</v>
       </c>
       <c r="Q5">
-        <v>1327.933154939876</v>
+        <v>2780.427643416262</v>
       </c>
       <c r="R5">
-        <v>1327.933154939876</v>
+        <v>25023.84879074636</v>
       </c>
       <c r="S5">
-        <v>0.5429474102124426</v>
+        <v>0.4295252561608097</v>
       </c>
       <c r="T5">
-        <v>0.5429474102124426</v>
+        <v>0.4295252561608097</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>44.7532640265214</v>
+        <v>45.11545066666667</v>
       </c>
       <c r="H6">
-        <v>44.7532640265214</v>
+        <v>135.346352</v>
       </c>
       <c r="I6">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="J6">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.17020720208716</v>
+        <v>1.357683666666667</v>
       </c>
       <c r="N6">
-        <v>1.17020720208716</v>
+        <v>4.073051</v>
       </c>
       <c r="O6">
-        <v>0.0289173073153812</v>
+        <v>0.01862058035795759</v>
       </c>
       <c r="P6">
-        <v>0.0289173073153812</v>
+        <v>0.01862058035795759</v>
       </c>
       <c r="Q6">
-        <v>52.37059188074355</v>
+        <v>61.25251048443911</v>
       </c>
       <c r="R6">
-        <v>52.37059188074355</v>
+        <v>551.272594359952</v>
       </c>
       <c r="S6">
-        <v>0.02141258174567521</v>
+        <v>0.009462393426644032</v>
       </c>
       <c r="T6">
-        <v>0.02141258174567521</v>
+        <v>0.009462393426644032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>44.7532640265214</v>
+        <v>45.11545066666667</v>
       </c>
       <c r="H7">
-        <v>44.7532640265214</v>
+        <v>135.346352</v>
       </c>
       <c r="I7">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="J7">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.624837198631971</v>
+        <v>9.926218666666665</v>
       </c>
       <c r="N7">
-        <v>9.624837198631971</v>
+        <v>29.778656</v>
       </c>
       <c r="O7">
-        <v>0.2378419604980547</v>
+        <v>0.1361377151918736</v>
       </c>
       <c r="P7">
-        <v>0.2378419604980547</v>
+        <v>0.1361377151918736</v>
       </c>
       <c r="Q7">
-        <v>430.7428803626612</v>
+        <v>447.8258285625458</v>
       </c>
       <c r="R7">
-        <v>430.7428803626612</v>
+        <v>4030.432457062912</v>
       </c>
       <c r="S7">
-        <v>0.1761163432740285</v>
+        <v>0.06918090610421863</v>
       </c>
       <c r="T7">
-        <v>0.1761163432740285</v>
+        <v>0.06918090610421865</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.20941584738978</v>
+        <v>7.310771333333334</v>
       </c>
       <c r="H8">
-        <v>7.20941584738978</v>
+        <v>21.932314</v>
       </c>
       <c r="I8">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="J8">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.6723196357907</v>
+        <v>61.629167</v>
       </c>
       <c r="N8">
-        <v>29.6723196357907</v>
+        <v>184.887501</v>
       </c>
       <c r="O8">
-        <v>0.7332407321865642</v>
+        <v>0.8452417044501688</v>
       </c>
       <c r="P8">
-        <v>0.7332407321865642</v>
+        <v>0.8452417044501688</v>
       </c>
       <c r="Q8">
-        <v>213.9200914110844</v>
+        <v>450.5567474008128</v>
       </c>
       <c r="R8">
-        <v>213.9200914110844</v>
+        <v>4055.010726607315</v>
       </c>
       <c r="S8">
-        <v>0.08746476371343856</v>
+        <v>0.06960278315480059</v>
       </c>
       <c r="T8">
-        <v>0.08746476371343856</v>
+        <v>0.06960278315480059</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.20941584738978</v>
+        <v>7.310771333333334</v>
       </c>
       <c r="H9">
-        <v>7.20941584738978</v>
+        <v>21.932314</v>
       </c>
       <c r="I9">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="J9">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.17020720208716</v>
+        <v>1.357683666666667</v>
       </c>
       <c r="N9">
-        <v>1.17020720208716</v>
+        <v>4.073051</v>
       </c>
       <c r="O9">
-        <v>0.0289173073153812</v>
+        <v>0.01862058035795759</v>
       </c>
       <c r="P9">
-        <v>0.0289173073153812</v>
+        <v>0.01862058035795759</v>
       </c>
       <c r="Q9">
-        <v>8.436510347456824</v>
+        <v>9.925714830001555</v>
       </c>
       <c r="R9">
-        <v>8.436510347456824</v>
+        <v>89.33143347001399</v>
       </c>
       <c r="S9">
-        <v>0.003449406641699182</v>
+        <v>0.001533341540115487</v>
       </c>
       <c r="T9">
-        <v>0.003449406641699182</v>
+        <v>0.001533341540115487</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.20941584738978</v>
+        <v>7.310771333333334</v>
       </c>
       <c r="H10">
-        <v>7.20941584738978</v>
+        <v>21.932314</v>
       </c>
       <c r="I10">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="J10">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.624837198631971</v>
+        <v>9.926218666666665</v>
       </c>
       <c r="N10">
-        <v>9.624837198631971</v>
+        <v>29.778656</v>
       </c>
       <c r="O10">
-        <v>0.2378419604980547</v>
+        <v>0.1361377151918736</v>
       </c>
       <c r="P10">
-        <v>0.2378419604980547</v>
+        <v>0.1361377151918736</v>
       </c>
       <c r="Q10">
-        <v>69.38945382836398</v>
+        <v>72.56831487666489</v>
       </c>
       <c r="R10">
-        <v>69.38945382836398</v>
+        <v>653.114833889984</v>
       </c>
       <c r="S10">
-        <v>0.02837102463479937</v>
+        <v>0.01121047839902061</v>
       </c>
       <c r="T10">
-        <v>0.02837102463479937</v>
+        <v>0.01121047839902061</v>
       </c>
     </row>
   </sheetData>
